--- a/biology/Médecine/Albinisme_oculaire_récessif_lié_au_chromosome_X/Albinisme_oculaire_récessif_lié_au_chromosome_X.xlsx
+++ b/biology/Médecine/Albinisme_oculaire_récessif_lié_au_chromosome_X/Albinisme_oculaire_récessif_lié_au_chromosome_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albinisme_oculaire_r%C3%A9cessif_li%C3%A9_au_chromosome_X</t>
+          <t>Albinisme_oculaire_récessif_lié_au_chromosome_X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'albinisme oculaire récessif lié au chromosome X (ou AO1) se caractérise par un nystagmus congénital, un iris et une rétine hypopigmentés, une hypoplasie de la fovéa, une diminution de l'acuité visuelle. Une diminution de la vision binoculaire et un strabisme sont fréquents. Cette pathologie ne s'aggrave pas au cours de la vie.
